--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T09:09:56+00:00</t>
+    <t>2022-02-04T14:34:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T14:34:49+00:00</t>
+    <t>2022-02-04T14:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T14:56:42+00:00</t>
+    <t>2022-02-22T16:21:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:21:25+00:00</t>
+    <t>2022-04-27T09:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T09:42:48+00:00</t>
+    <t>2022-04-27T09:44:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T09:44:06+00:00</t>
+    <t>2022-04-27T09:49:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T09:49:09+00:00</t>
+    <t>2022-04-27T10:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T10:07:43+00:00</t>
+    <t>2022-04-27T10:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T10:10:54+00:00</t>
+    <t>2022-04-27T10:23:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T10:23:48+00:00</t>
+    <t>2022-04-27T14:42:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T14:42:58+00:00</t>
+    <t>2022-04-27T15:54:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T15:54:04+00:00</t>
+    <t>2022-04-28T14:45:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.com/fhir/example/StructureDefinition/VMPGroupModel</t>
+    <t>https://costateixeira.github.io/be-medication-concepts/StructureDefinition/VMPGroupModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:45:54+00:00</t>
+    <t>2022-04-28T14:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T14:58:18+00:00</t>
+    <t>2022-04-28T15:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T15:01:01+00:00</t>
+    <t>2022-04-28T16:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T16:52:22+00:00</t>
+    <t>2022-05-03T15:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T15:55:49+00:00</t>
+    <t>2022-05-04T08:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T08:32:36+00:00</t>
+    <t>2022-05-13T09:57:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T09:57:30+00:00</t>
+    <t>2022-05-13T12:02:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T12:02:47+00:00</t>
+    <t>2022-05-13T12:43:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T12:43:14+00:00</t>
+    <t>2022-05-13T14:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-VMPGroupModel.xlsx
+++ b/branches/master/StructureDefinition-VMPGroupModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-13T14:46:23+00:00</t>
+    <t>2022-05-13T14:52:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
